--- a/NespressoTrainingApp/data/CoffeeData.xlsx
+++ b/NespressoTrainingApp/data/CoffeeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\Documents\Nespresso\Version 1\NespressoTrainingApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1876ACB2-4BF4-4B63-91E8-FF8EC2EBC51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931DD1A-C551-40F2-AEF6-63E8939A549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="613">
   <si>
     <t>Name</t>
   </si>
@@ -1019,6 +1019,856 @@
   </si>
   <si>
     <t>Balanced, Intense</t>
+  </si>
+  <si>
+    <t>Inspirazione Napoli</t>
+  </si>
+  <si>
+    <t>Kazaar</t>
+  </si>
+  <si>
+    <t>Ristretto</t>
+  </si>
+  <si>
+    <t>Ristretto Decaffeinato</t>
+  </si>
+  <si>
+    <t>Arpeggio</t>
+  </si>
+  <si>
+    <t>Arpeggio Decaffeinato</t>
+  </si>
+  <si>
+    <t>Inspirazione Venezia</t>
+  </si>
+  <si>
+    <t>Inspirazione Roma</t>
+  </si>
+  <si>
+    <t>Livanto</t>
+  </si>
+  <si>
+    <t>OL1</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Dark &amp; Creamy</t>
+  </si>
+  <si>
+    <t>The most intense and darkest roast in this range, inspired by the capital of coffee, reveals the deep-rooted roasting traditions of Naples. Its depth of character should come as no surprise.</t>
+  </si>
+  <si>
+    <t>Ispirazione Napoli pays tribute to the short, strong and dark espressos of this southern Italian coastal city. It’s a velvety, creamy cup with an extremely thick body and a kiss of pleasant bitterness in its aftertaste. A velvety, creamy cup with an extremely thick body and pleasantly bitter cocoa notes.</t>
+  </si>
+  <si>
+    <t>Ristretto 25ml, Espresso 40ml</t>
+  </si>
+  <si>
+    <t>Intense, Roasted</t>
+  </si>
+  <si>
+    <t>57 g</t>
+  </si>
+  <si>
+    <t>Inspirazione Italiana</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16216638324766/ispirazione-napoli-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-napoli_L.png</t>
+  </si>
+  <si>
+    <t>OL2</t>
+  </si>
+  <si>
+    <t>OL3</t>
+  </si>
+  <si>
+    <t>OL4</t>
+  </si>
+  <si>
+    <t>OL5</t>
+  </si>
+  <si>
+    <t>OL6</t>
+  </si>
+  <si>
+    <t>OL7</t>
+  </si>
+  <si>
+    <t>OL8</t>
+  </si>
+  <si>
+    <t>OL9</t>
+  </si>
+  <si>
+    <t>Intense &amp; Syrupy</t>
+  </si>
+  <si>
+    <t>A long, dark roast inspired by the union of Sicilian coffee artistry and African and Arabian heritage is guaranteed to spice things up.</t>
+  </si>
+  <si>
+    <t>You’ll taste the audacious bitterness and peppery notes leaping out through the thick syrupy body. Together the Arabica and Robusta balance each other out in this espresso. It reflects both the Palermo coastal lifestyle and its rich history. You can sit back in the sun and enjoy your Kazaar on the terrace, with everything from the food on your plate to the architecture surrounding you whispering the histories of all who’ve passed through Palermo.</t>
+  </si>
+  <si>
+    <t>Woody, Spicy</t>
+  </si>
+  <si>
+    <t>60 g</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16283547566110/Palermo-kazaar-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-palermo-kazaar_L.png</t>
+  </si>
+  <si>
+    <t>Powerful &amp; Contrasting</t>
+  </si>
+  <si>
+    <t>This medium dark roast embodies Italy’s iconic coffee culture in just a short, quick sip.</t>
+  </si>
+  <si>
+    <t>A roasty and intense coffee but with fruity notes and a hint of acidity dancing through the blend – Ristretto is mysterious and magnetic in its complexity. It’s a profile worthy of an ambassador – a coffee that explains Italians’ passion for coffee and makes sense of why it’s ingrained in daily life. Extracted to the classic 25 ml, you’ll soon see how right the Italians are – this drop of deliciousness shows how less can truly be more.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16217625559070/ispirazione-ristretto-italiano-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-ristretto_L.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This medium dark roast embodies Italy’s iconic coffee culture in just a short, quick sip.
+</t>
+  </si>
+  <si>
+    <t>Boldly roasty but balanced out by soft cocoa notes. You may catch some of the subtle acidity and fruity notes that make this Nespresso Decaf capsule so mysteriously complex. It’s a profile worthy of an ambassador – a coffee that explains Italians’ passion for coffee and makes sense of why it’s ingrained in daily life. Extracted to the classic 25 ml, you’ll soon see how right the Italians are – this drop of deliciousness shows how less can truly be more.</t>
+  </si>
+  <si>
+    <t>Decaffeinated roast and ground coffee</t>
+  </si>
+  <si>
+    <t>58 g</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16262679461918/ristretto-italiano-decaffeinato-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-ristretto-decaffeinato_XL.png</t>
+  </si>
+  <si>
+    <t>Intense &amp; Creamy</t>
+  </si>
+  <si>
+    <t>A short and dark roasted masterpiece such as this, can only come from the heart. Or in this instance, the cultural and artistic heart of Italy.</t>
+  </si>
+  <si>
+    <t>Arpeggio is dense and creamy with bold roasty and cocoa notes. The crema gives it a creamy, velvety texture that is irresistible. You might even call it high art.</t>
+  </si>
+  <si>
+    <t>Intense, Very Roasted, Cocoa</t>
+  </si>
+  <si>
+    <t>53 g</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15990477783070/firenze-arpeggio-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-firenze-arpeggio_L.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short and dark-roasted masterpiece such as this can only come from the cultural and artistic heart of Italy.
+</t>
+  </si>
+  <si>
+    <t>Arpeggio Decaffeinato is as dense and creamy as the no decaffeinated version. Decaffeination doesn’t diminish the bold roasty and cocoa notes. The crema gives it a creamy, velvety texture that is irresistible.</t>
+  </si>
+  <si>
+    <t>Very Roasted, Cocoa</t>
+  </si>
+  <si>
+    <t>Very Roasted, Hint of Fruity</t>
+  </si>
+  <si>
+    <t>55 g</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942162972702/firenze-arpeggio-decaffeinato-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-firenze-arpeggio-decaffeinato_L.png</t>
+  </si>
+  <si>
+    <t>Balanced &amp; Thick Body</t>
+  </si>
+  <si>
+    <t>Unsurprisingly, this long roast wasn’t discovered overnight, but was rather inspired by Italy’s enduring roasting traditions that have been passed down through generations.</t>
+  </si>
+  <si>
+    <t>Ispirazione Venezia is a mellow, rounded and delicately aromatic coffee that will remind you of coffee beans fresh out of the roaster – taking you back in time to the early days of Italy’s coffee trade. Its lighter roast keeps the delicate aromas intensely present while developing a thick body. In Venezia you can’t miss the distinct cereal fragrance and those notes of sweet caramel that we all find so reassuring.</t>
+  </si>
+  <si>
+    <t>Roasted</t>
+  </si>
+  <si>
+    <t>56 g</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441095725086/ispirazione-venezia-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/13953171390494/C-0472-Main-PDP-IspirazioneItaliana-Venezia-OL.jpg?impolicy=productPdpSafeZone&amp;imwidth=1238</t>
+  </si>
+  <si>
+    <t>Full &amp; Balanced</t>
+  </si>
+  <si>
+    <t>Combining the ancient character of Rome with a twist of modernity, this short roast balances intensity with elegant aromatics, reflecting the complexity of this great city. Thankfully, making one for yourself is less complex.</t>
+  </si>
+  <si>
+    <t>From the days of Ancient Rome, a great many cultures passed through this metropolis. Different layers of civilization towering up to the present day when Modern Rome adds its layer of elegance to the rich history of the city. Ispirazione Roma, too, is beautifully complex. There’s a subtle balance between the strength of the roastiness, the depth of the woodsy, cereal notes, and the finesse of the acidity and elegant aromatics.</t>
+  </si>
+  <si>
+    <t>Woody, Cereal</t>
+  </si>
+  <si>
+    <t>50 g</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441097035806/ispirazione-roma-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-roma_L.png</t>
+  </si>
+  <si>
+    <t>Round &amp; Balanced</t>
+  </si>
+  <si>
+    <t>In honour of Genoa, the gateway to the world, we used some of the finest Latin American Arabicas to create this sweet, medium roast.</t>
+  </si>
+  <si>
+    <t>Livanto is a smooth, rounded and delicately aromatic coffee. Its lighter roast develops the smooth and full body and keeps the finer aromas present. You’ll catch a toasted cereal fragrance and sweet caramel notes.</t>
+  </si>
+  <si>
+    <t>Balanced</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441097134110/ispirazione-genova-livanto-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/13245281894430/C-0477-Main-PDP-IspirazioneItaliana-GenovaLivanto-OL.jpg?impolicy=productPdpSafeZone&amp;imwidth=1238</t>
+  </si>
+  <si>
+    <t>OL10</t>
+  </si>
+  <si>
+    <t>Cape Town Lungo</t>
+  </si>
+  <si>
+    <t>Miami Espresso</t>
+  </si>
+  <si>
+    <t>Rio De Janeiro Espresso</t>
+  </si>
+  <si>
+    <t>Instanbul Espresso</t>
+  </si>
+  <si>
+    <t>Stockholm Lungo</t>
+  </si>
+  <si>
+    <t>Paris Espresso</t>
+  </si>
+  <si>
+    <t>Tokyo Lungo</t>
+  </si>
+  <si>
+    <t>Vienna Lungo</t>
+  </si>
+  <si>
+    <t>Shanghai Lungo</t>
+  </si>
+  <si>
+    <t>Buenos Aires Lungo</t>
+  </si>
+  <si>
+    <t>OL11</t>
+  </si>
+  <si>
+    <t>OL12</t>
+  </si>
+  <si>
+    <t>OL13</t>
+  </si>
+  <si>
+    <t>OL14</t>
+  </si>
+  <si>
+    <t>OL15</t>
+  </si>
+  <si>
+    <t>OL16</t>
+  </si>
+  <si>
+    <t>OL17</t>
+  </si>
+  <si>
+    <t>OL18</t>
+  </si>
+  <si>
+    <t>OL19</t>
+  </si>
+  <si>
+    <t>World Explorations</t>
+  </si>
+  <si>
+    <t>Lungo</t>
+  </si>
+  <si>
+    <t>110ml</t>
+  </si>
+  <si>
+    <t>Potent &amp; Roasted</t>
+  </si>
+  <si>
+    <t>A deep-roasted, intense, and full-bodied cup with a woodsy aroma and punchy bitterness reminiscent of the Robusta cargo that shaped Cape Town’s taste in coffee.</t>
+  </si>
+  <si>
+    <t>This blend brings you Cape Town’s taste in coffee. With South Africa as a stopping point on the old trade routes, Asian coffees shaped local taste over time. World Explorations Cape Town Lungo reflects this preference with a blend of Indian Arabica and Robusta. It results in our most intense Lungo – full-bodied and with a punchy bitter note and woodsy aroma. Enjoy it like a local: Add a splash of milk to your long cup and experience the silky texture.</t>
+  </si>
+  <si>
+    <t>Lungo 110ml</t>
+  </si>
+  <si>
+    <t>Roasted, Woody</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441093136414/capetown-envivo-lungo-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/cape-town-envivo-lungo_L.png</t>
+  </si>
+  <si>
+    <t>Roasted with a peppery note</t>
+  </si>
+  <si>
+    <t>Walk the streets of Miami and you’ll pass dozens of ventanitas. These ‘little windows’ are portholes to Cuba; miniature coffee shops dishing out small bites and coffee—the short Cafecito or the larger Colado to share. The city is a melting pot of traditions and World Explorations Miami Espresso is a bold blend of Arabica and Robusta coffees that echoes that. Caribbean Arabica joins Latin American coffees, sealing the authenticity of this archetypal Cuban-style cup. While Americans grab their tall coffees to-go, Miami reflects its strong Hispanic influence: coffee is short and shared.</t>
+  </si>
+  <si>
+    <t>Short, dark split roasting and a fine grind help evoke every ventanita’s Cuban Cafecito. Always sweetened with a sprinkle of brown sugar, this coffee is as vibrant as the context in which it’s enjoyed. While Americans grab their tall coffees to-go, Miami reflects its strong Hispanic influence: coffee is short and shared. Intense, with thick crema, its strong roasted character begs for brown sugar to soften the bitter notes. Enjoy your Cafecito with brown sugar and people because in Miami, coffee is a way to be together.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15104178651166/before-PLP-318x318px.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15143388676126/AT-B2C-2022-WEX-Miami-Image-Set-Desktop.png</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Spicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embodying the spirit of this lively and colourful city, World Explorations Rio de Janeiro Espresso reflects the country’s deeply rooted heritage of both growing and drinking coffee. An intense, exotic and velvety espresso crafted exclusively with Brazilian Arabicas. Its unique touch of sandalwood and herbal notes will give you a glimpse into the Brazilian way of life. Drink it like a local: Double your espresso with hot water to taste the typical smooth Carioca coffee.
+</t>
+  </si>
+  <si>
+    <t>An Arabica-only espresso with a complex split roast delivers a surprisingly full body and strong roasted notes graced with exotic herbal aromas</t>
+  </si>
+  <si>
+    <t>Spicy</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/B2C-enriched-pdp-wex-2022/istanbul-espresso/main-image_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15414727049246/before-PLP-318x318px.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15200754532382/C-0889-Responsive-PDP-Main-6272x2432.jpg?impolicy=productPdpSafeZone&amp;imwidth=1238</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15430408437790/C-0888-before-PLP-318x318px.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Roasted with a fruity note and a hint of almond</t>
+  </si>
+  <si>
+    <t>Istanbul Espresso takes you back in time to the original coffeehouses. This intense ambrosial brew bursts with boldness, wild ripe fruits, and a delicate almond touch. Thick and velvety in homage to Turkish coffee, its Ethiopian Arabica and Indian Robusta remind us of this city at the crossroads of the ancient coffee trade routes. It’s a blend as cosmopolitan as the crowd gathered in an Istanbul coffeehouse. Enjoy it like a local: Accompany it with a glass of water and a piece of Turkish Delight.</t>
+  </si>
+  <si>
+    <t>A complex espresso full of wild aromatics and a balance of both bitter roasted and fruity notes, with a touch of acidity and an almond finish that hints at sweetness.</t>
+  </si>
+  <si>
+    <t>Fruity, Roasted</t>
+  </si>
+  <si>
+    <t>Rich &amp; Full-bodied</t>
+  </si>
+  <si>
+    <t>An intense all-Arabica coffee best enjoyed black to savour the pure taste beloved by Swedes – malty, with a hint of rich bitterness.</t>
+  </si>
+  <si>
+    <t>Swedes are among the world’s biggest coffee consumers. Wander around Stockholm, and you’ll often find intense black coffees with a malty savoury note coming from the distinctive Monsoon Arabica. World Explorations Stockholm Lungo recreates the aromatic profile of a Swedish coffee by coupling Monsooned Malabar with Colombian Arabica for an intense, sweet cup with a hint of bitterness. Drink it like a local: Share your large flavourful cup and cinnamon rolls with friends and family.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15906838806558/stockholm-fortissio-lungo-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/13753029689374/C-0686-Main-PDP-Lungo-Stockholm-OL.jpg?impolicy=productPdpSafeZone&amp;imwidth=1238</t>
+  </si>
+  <si>
+    <t>Cereal and biscuity, with a hint of citrus</t>
+  </si>
+  <si>
+    <t>Travel the world through coffee – and discover unique and typical tastes brought to you from cities around the world</t>
+  </si>
+  <si>
+    <t>A balanced coffee with light bitterness, cereal biscuity notes, pleasant acidity and a hint of citrus.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/B2C-enriched-pdp-wex-2022/paris-espresso/main-image_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15414968844318/C-0887-before-PLP-318x318px.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Floral &amp; Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The high quality Arabicas deliver exceptional flowery aromas and complex tastes worthy of Tokyo’s refined palate.
+</t>
+  </si>
+  <si>
+    <t>Known for tea, the Japanese also have a real affinity for coffee. Striving for sophistication and natural sweetness, they love both a rich coffee and a balance of elegant aromas. World Explorations Tokyo Lungo captures the essence of these preferences with refined Ethiopian and Mexican Arabicas. Complex, floral, with a hint of acidity – you will be pleasantly surprised by this cup. Drink it like a local: Extract your long black cup up to 150ml and take time to savour its aromas.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942164447262/ol-tokyo-vivalto-lungo-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/tokyo-vivalto-lungo_S.png</t>
+  </si>
+  <si>
+    <t>Round &amp; Smooth</t>
+  </si>
+  <si>
+    <t>From coffeehouse to home coffee gathering, this balanced blend of smooth and silky South American Arabicas pairs perfectly with your viennoiserie.</t>
+  </si>
+  <si>
+    <t>Vienna’s coffeehouse tradition shaped the coffee culture of this vibrant city, known for its many recipes and the smoothness of its coffee. World Explorations Vienna Lungo recreates this balanced and pleasant Viennese taste by pairing sweet Brazilian and Colombian Arabicas, lightly roasted by our experts to enhance the malty and aromatic notes in the cup. Enjoy it like a local: Top up your Lungo with hot water for a 150ml cup and pair it with a slice of cake.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441093333022/vienna-linizio-lungo-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/vienna-linizio-lungo_XL.png</t>
+  </si>
+  <si>
+    <t>Fruity with fine acidity</t>
+  </si>
+  <si>
+    <t>Venice has a long history of importing the world’s coffees and expertly roasting these diverse coffees into harmony. Their expertise inspired the beautifully balanced roast of Ispirazione Venezia. Worthy of a noble dessert, the classic caramel and cereal notes of this coffee marry elegantly with the decadent ingredients of this rich tiramisu.</t>
+  </si>
+  <si>
+    <t>WORLD EXPLORATIONS SHANGHAI LUNGO is an insight into the emerging Asian coffee culture. Crafted from Kenyan, Chinese and Indonesian Arabicas, this distinctive light-roast blend will please the palate with its berry notes and fine acidity. Enjoy it like a local: Lengthen this long cup of coffee with a splash of cream and take it on-the-go</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16106997547038/shanghai-lungo-plp.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/shangai-lungo_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/buenos-aires-lungo_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441093759006/buenos-aires-lungo-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Cereal</t>
+  </si>
+  <si>
+    <t>A destination for true foodies, Buenos Aires is a highlight of Argentina’s vibrant food scene. Sweetness prevails, and coffee is no exception: they love it sweet and milky!</t>
+  </si>
+  <si>
+    <t>WORLD EXPLORATIONS BUENOS AIRES LUNGO blends a gently roasted Colombian Arabica with Ugandan Robusta to deliver distinct cereal and sweet popcorn notes. A tribute to the city’s love for smooth long cups. Drink it like a local: Add a generous drop of milk and sugar at will to your Lungo for an extra treat.</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Ethiopea</t>
+  </si>
+  <si>
+    <t>Indonesia - Fairtrade</t>
+  </si>
+  <si>
+    <t>OL20</t>
+  </si>
+  <si>
+    <t>OL21</t>
+  </si>
+  <si>
+    <t>OL22</t>
+  </si>
+  <si>
+    <t>OL23</t>
+  </si>
+  <si>
+    <t>OL24</t>
+  </si>
+  <si>
+    <t>OL25</t>
+  </si>
+  <si>
+    <t>Origins</t>
+  </si>
+  <si>
+    <t>Robusta Monsson</t>
+  </si>
+  <si>
+    <t>Master Origins India with Robusta Monsoon gets its intense, woody, spicy aromatics from the monsooned Robusta blended into Indian Arabica.</t>
+  </si>
+  <si>
+    <t>Monsooning coffees is unique to India’s southwest coast. Months of monsoonal winds repeatedly swell and dry the beans. It mimics the journey it used to take when sailing to Europe. If you’re changing track, try this coffee as a Latte Macchiato. You’ll still catch the long-lasting wood and spice aromatics and all of Master Origins India with Robusta Monsoon’s intensity. This Arabica Robusta blend makes a great coffee with milk.</t>
+  </si>
+  <si>
+    <t>Espresso 40ml, Lungo 110ml</t>
+  </si>
+  <si>
+    <t>Intense, Spicy</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091170334/india-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/india_L.png</t>
+  </si>
+  <si>
+    <t>Wet hulled Arabica</t>
+  </si>
+  <si>
+    <t>Master Origins Indonesia wet-hulled Arabica is a race against rain.</t>
+  </si>
+  <si>
+    <t>Sumatran farmers wet-hull their coffee because of the humid climate. They remove the parchment when the coffee is soft and moist because exposed beans dry faster. The method is unique to them and produces the classic Indonesian taste - velvety thick, wildly aromatic, notes of cured tobacco. Try Master Origins Indonesia wet-hulled Arabica with a dash of milk - nutty, woody and roasted notes emerge in this intense coffee with milk.</t>
+  </si>
+  <si>
+    <t>Espresso 40 ml, Lungo 110ml</t>
+  </si>
+  <si>
+    <t>Intense, Cereal, Woody</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091596318/indonesia-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/indonesia_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/colombia_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091694622/colombia-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Late Harvest Arabica</t>
+  </si>
+  <si>
+    <t>Master Origins Colombia with Late Harvest uses only high-grown, washed processed Colombian Arabica.</t>
+  </si>
+  <si>
+    <t>Can you taste the lively acidity and the burst of winey red fruit aromas? That comes from those coffee farmers who dared to wait longer before harvesting their crop. Like your coffee with milk? Master Origins Colombia with Late Harvest Arabica makes a delicate and creamy cappuccino. Sweet biscuit notes emerge when this Colombian coffee combines with milk froth.</t>
+  </si>
+  <si>
+    <t>Espresso 40ml. Lungo 110ml</t>
+  </si>
+  <si>
+    <t>High up in the Andes</t>
+  </si>
+  <si>
+    <t>We traveled across remote Peruvian regions in search of some of the finest organic Arabica beans. High up above 1000 meters, tucked into the slopes of the Andes, we found them. Blessed with the meticulous care of smallholder farmers, Peru Organic is an elegant, fruity coffee accented by a smooth toasted cereal note.</t>
+  </si>
+  <si>
+    <t>An elegant organic Arabica crafted by remote smallholder farmers in Peru’s remote Andes’ mountains, graced with smooth toasted cereal and fruit notes. After going to such great lengths to source the finest organic Peruvian coffee, it was only natural to take the same care in roasting this coffee. Peru Organic is a single origin coffee roasted in two parts to bring a nuanced complexity to the final cup. The two splits are lightly roasted and highlight the bright and smooth character of the blend while revealing the exotic fruity notes.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15448290885662/7734.10-PLP-318x318.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/peru_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/nicaragua_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091792926/nicaragua-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>With "Black-Honey" Processed Arabica</t>
+  </si>
+  <si>
+    <t>If Black Honey processing were the easy road to a nectarous coffee, they’d all do it. But only a few farmers dare. It’s a rare process because it calls for meticulous monitoring. Master Origins Nicaragua with ‘Black-Honey’ processed Arabica contains this coffee. It gives this Nicaraguan Arabica its smooth honeyed texture and sweet cereal notes.</t>
+  </si>
+  <si>
+    <t>With ''Black-Honey'' processed Arabica, Master Origins Nicaragua is a nectarous coffee. It has a satiny smooth texture and warming sweet cereal notes. Its distinct sweetness comes from the rare Black-Honey process. If you like it with milk froth, Master Origins Nicaragua with ‘Black-Honey’ processed Arabica makes a rich latte macchiato. As a coffee with milk, it’s balanced and has nutty, roasted notes that surface.</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ethiopia_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091891230/ethiopia-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Ethiopia with Dry Processed Arabica</t>
+  </si>
+  <si>
+    <t>This is Ethiopian Arabica at its finest - decadently aromatic.</t>
+  </si>
+  <si>
+    <t>It has an orange blossom aroma, but the rich fruit jam notes come from the sun-dried coffee in Master Origins Ethiopia with dry processed Arabica. Continually hand-turning the coffee cherry to ensure even drying calls for great care. And Ethiopian farmers have used this method for longer than anyone else. If you like milk and coffee, try Master Origins Ethiopia with dry processed Arabica with milk froth to make a cappuccino. You’ll find all the delicate floral notes still smoothly dancing through this cup of coffee with milk.</t>
+  </si>
+  <si>
+    <t>Capriccio</t>
+  </si>
+  <si>
+    <t>Cosi</t>
+  </si>
+  <si>
+    <t>Volutto</t>
+  </si>
+  <si>
+    <t>Volutto Decaffeinato</t>
+  </si>
+  <si>
+    <t>OL26</t>
+  </si>
+  <si>
+    <t>OL27</t>
+  </si>
+  <si>
+    <t>OL28</t>
+  </si>
+  <si>
+    <t>OL29</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/commons/img/coffees/OL/composition/ol_coffee-sleeves_capriccio_16-9.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762782748702/capriccio.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Rich &amp; Distinctive</t>
+  </si>
+  <si>
+    <t>Capriccio is the rich, unique espresso that is ready to astonish with its complex and balanced bouquet.</t>
+  </si>
+  <si>
+    <t>Its distinct cereal notes are characteristic of the Brazilian Arabica and touch of Robusta we use. But then Capriccio surprises you with a fine acidity that gleams through - that comes from the high-grown South American Arabicas and the light roast. Adding milk will bring out the biscuit and caramel notes - it highlights the coffee’s sweetness. You can really indulge with this in a Capriccio cappuccino or Latte Macchiato.</t>
+  </si>
+  <si>
+    <t>Balanced, Cereal</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/commons/img/coffees/OL/composition/ol_coffee-sleeves_cosi_16-9_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762785566750/cosi.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Mild &amp; Delicately roasted</t>
+  </si>
+  <si>
+    <t>Light roasting classic coffees keeps their distinguished aromatics alive. Cosi meets your palate with a smile.</t>
+  </si>
+  <si>
+    <t>It’s a blend of world-renowned Arabicas - from East Africa and Latin America. Kenya brings the jammy ripe, red fruit notes to Costa Rica’s rich, sweet cereal base. The light roast and coarse grind keeps this espresso mild and rounded without losing any of its soul. Cosi with milk takes on an indulgent silky texture and sweet biscuit notes.</t>
+  </si>
+  <si>
+    <t>Fruity, Cereal</t>
+  </si>
+  <si>
+    <t>The delicate and generous aromas of Brazilian and Colombian Arabicas strike graceful harmony in this approachable espresso.</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Light</t>
+  </si>
+  <si>
+    <t>Volluto is sunny living. The natural Brazilian Arabica mellows out in its pre-shipment resting time. The medium roast softens the Brazil’s cereal notes and turns them to sweet biscuit. And the washed Arabica from Colombia brings delightful fresh red fruit notes to the blend. The medium roast and grind rounds out these flavors and creates a perfectly balanced espresso. Volluto comforts like the smell of fresh, oven-baked brioche does. This sweet and light espresso stays in full-bodied balance when you add milk.</t>
+  </si>
+  <si>
+    <t>Balanced, Fruity, Cereal</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/volluto_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762784452638/volluto-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/commons/img/coffees/OL/composition/ol_coffee-sleeves_volluto-decaffeinato_16-9.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942161104926/volluto-decaffeinato-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Sweet and light. Delightfully balanced cereal and fruity notes. Volluto has an easy way about it.</t>
+  </si>
+  <si>
+    <t>And Volluto Decaffeinato is faithful to form - Brazilian and Colombian coffees are carefully composed and now gently decaffeinated - for very sunny living. We decaffeinate naturally to make sure the coffee beans’ quality and taste is protected as much as possible. And just as with Volluto, in a Volluto Decaffeinato with milk you’ll taste the irresistible charm of those easy sweet biscuit and caramel notes with a splash of lively fruit aromas.</t>
+  </si>
+  <si>
+    <t>Cereal, Fruity, Balanced</t>
+  </si>
+  <si>
+    <t>Corto</t>
+  </si>
+  <si>
+    <t>Scuro</t>
+  </si>
+  <si>
+    <t>Chiaro</t>
+  </si>
+  <si>
+    <t>Cocoa Truffle</t>
+  </si>
+  <si>
+    <t>Vanilla Éclair</t>
+  </si>
+  <si>
+    <t>Caramel Crème Brulle</t>
+  </si>
+  <si>
+    <t>OL30</t>
+  </si>
+  <si>
+    <t>OL31</t>
+  </si>
+  <si>
+    <t>OL32</t>
+  </si>
+  <si>
+    <t>OL33</t>
+  </si>
+  <si>
+    <t>OL34</t>
+  </si>
+  <si>
+    <t>OL35</t>
+  </si>
+  <si>
+    <t>Very spicy and slightly smoked</t>
+  </si>
+  <si>
+    <t>Inspired by the dark roasted tastes and thick textures created by the expert baristas of Spain, we selected a blend of African Arabicas and Robusta, and roasted them long and dark to create a powerful, full-bodied taste, which becomes smoother and creamier with a splash of milk.</t>
+  </si>
+  <si>
+    <t>For BARISTA CREATIONS Corto, we took our inspiration from the dark roasts and thick textures created by the expert baristas in Spain, that is why it is easily recognizable by its raw strength and intense, roasty character. Corto can punch through milk with its rich aftertaste, elegant bitterness, and a thick, textured body. With a dash of hot milk and milk froth crowning the cup, you’ll experience Corto in the traditional cortado recipe’s way.</t>
+  </si>
+  <si>
+    <t>Capuccino, Latte Macchiato</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14438025363486/corto-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/corto_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/scuro_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16291413262366/scuro-OL-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>With balanced biscuit notes</t>
+  </si>
+  <si>
+    <t>Taking our inspiration from Melbourne baristas - the masters of robust, but perfectly balanced tastes.</t>
+  </si>
+  <si>
+    <t>Our BARISTA CREATIONS Scuro shows you how intense your coffee can get while still staying beautifully in balance with milk. It’s just roasty enough to push through milk, and its delicate sweetness tempers its intensity to make it a compelling intense Cappuccino or Latte Macchiato.</t>
+  </si>
+  <si>
+    <t>Roasted, Balanced</t>
+  </si>
+  <si>
+    <t>With notes of caramel and sweet biscuits</t>
+  </si>
+  <si>
+    <t>Inspired by the baristas of Brooklyn, who value the natural sweetness of coffee and apply a light roast to protect it.</t>
+  </si>
+  <si>
+    <t>BARISTA CREATIONS Chiaro has hardly a hint of roastiness, and almost no bitterness or acidity you can perceive. It’s all creamy caramel and sweet biscuit notes when you add milk. The baristas in Brooklyn inspired us in the way their light roast values the natural sweetness of coffee and lends a decadent smoothness to the cup when you add milk.</t>
+  </si>
+  <si>
+    <t>48 g</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16154719715358/chiaro-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxATEhUSEhIVEA8VFRcXFRUVFhAWERUPFRUYFhUVFhUYHSggGBolGxUVITEhJikrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGzciHSAvLS4tKzctLysvLS0tKystLS0tNy4tNystLS0tLSstLSstLy0tLS0tLS0tLS0tLSsrLf/AABEIAKgBLAMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xABKEAABAwICBQgFBwsACwAAAAABAAIDBBEFIQYSMUFREyIyYXGBkaEHcrHB0RQjM0JSYqIVJENTc4KSsrPh8CVjZIOEk8LD0uLx/8QAGAEBAAMBAAAAAAAAAAAAAAAAAAECAwT/xAAkEQEAAgIBAwQDAQAAAAAAAAAAAQIDETEEEyESFEFhIjJR8P/aAAwDAQACEQMRAD8A7iiIgIiICIiAiIgIiIML6loNs3O4NBPiRkO9fRMfsO/D8Vy7Ea2QV5YWML+UJa02cOdt5+rdud8gt2mGobFpz3ta54bkMi1ouc+vggvOUP2T+H4r5y33HfhPsK17lH5WjcfvOELGnuMhcPBQsWopZWkFtM1m8uY+V1rbRcxgHvKDbYKqN5Ia4EjaN47Qsy5noHXStq+RbC3kncpd5dYtgZ0NVoye4u2gbL7TZdMQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEReJpA1pcdjQSewC6DQafCXzYrUk2ZTRahGqG35ZzQ61iLcXHfmFtxw/frnvbH8FC0abaN0ryBJPI6VwyvY2az8LW+Ks3VsY2uHmgwfk7/AFhHYGrxNg7HtLXvc5p2giL/AMVnOKQfbHg74IMSgP6Qeaga7oJByc1XC4NLoZA1hsNbki24N9oB4fdW5LWZi2KrZUMsWTNEUpBHSbcxuPi4LZlIIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgKJiObdXaHbexS1Cqzd1upRKYR44ABs/wDih1EIKspNigTFUSrJqccV4EA61IkK8tRL5yQ7VsuGy60bTvGR7QtfCtcDf0m9h9x9gUwiVqiIrqiIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgKBP9Ie72BT1Xz/SHu9gUSmHycquncp1QVVVD1RZHe7NfWOUd7817Y5BKBVjgZ57vV96qg5WWAnnu9X3hTHJK9REV1BERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQFW1B+cPd7ArJVdV9Ie72BRZMPFSVT1LlbVRyVLUlUWRHuzWSNyjvOa9xlBLBVpo+fnHer7wqdrlb4E1zXlzgQ0tsCeNwpjlEthRRnVY3BeDVnqV1UxFB+VO/wAsnyl3FBORQOXdxXg1L/8ALILJFW/LH9S9txA7wEE9FAfiORsy53DWAue0jJadj+m2IwXIw4NYP0hkMrbcSIwNXvKDoCLhlT6RcTlybLHD1Rxs2dsmsqvEMVq5L8rVTON82ukcGavqg28kHe63FaaH6WeKL13sb7So1NpJQyZMqoXHhyjL+BN1+eopREbsl1D90ELOccntq65cLWvqsBt1uAufFB+kmuBFwbjiNi+r8yU1ZKw3jJidvLXFpPe03VrBpdikfRrZB62rJ/UB9iD9DItL9GGP1NXDKah4kcyQNDg1rSQWg5huW3qW6ICIiAiIgIiICIiAiIgIiICq6v6Q93sCtFVVf0h7vYFFkwxVKpqlXFUqatka0XcQ0cSQB4lUWV79q9xqprNI6NnSnYbfZJefBgKrJdO6QZNbJIewNHi4g+SaG+4Y5rTrOaXZ2uBfV4ZbeOfUrlkzXdEh3YVzzQrTH5TUmAxiIOY4t+c1nF7M7WsPq6x37F0MQMcLuaCRvIBPirwrL45eCspphuuO93xUeW43+xSh9N15Lio8lS4cFFlxCTg3wPxQT3SlePlBVRLiknBvgfiocuLzfdH7v91A2PlljdOtTnxao+3bsaz3hQZqqY7ZXeNvZZBuj60DabBV8+lFOzIyax4Mu4+Iy8StMnjvm4lx67k+ajtiBcABtNkSqNMHxOqnuibyTHBri0BttZzQSe+4J67qmDR/hK3ilweCXOobMQdfUfCNZzWscGgOFjcE652butY5tCI5L/JKtskn6qZpjkPGxNr+FutWiUNPaLbAB4IFlq6WSJ7o5WGORuTmuyI/t1rDdShlaUJXgFelA616FR8xUfth/IF0Zc89C4/N5/2w/ptXQ1CRERAREQEREBERARYK4nk32yOo6xFwb6p2ELkWN6Luqbk1tWLjoySumh/5biD5rO+WtJ1K9cc2jw6lX4/RwfTVMMR4OkYHeBN1rtb6UcJYSBM+Zw3RxSkdznANPiuT1Xo+qmD5t0Mw4AmJ57Gv5v4lS1mCVcQvJTysHHV1md72Xb5q1clLcSiaWjmHU670zRD6Gke/rle1nfZgffyWt4h6Ua2RxcxkMN+DXPd4uNvJc/gfrmzAZDwYC8+DVa02j1fJ0Kd4HF+qwfiIPklprHMlYmeITq3SzEZenVS/ulsY8IwFTSvLjrOJc7i4lzvErYaPQKsdm+WOIdWu827Mh5q7pfRzCLGaeWQ7w3UY33nzWM9Rjj5axhvPw0BzhvKxiVpNhzjwGZ8F2Cg0HoGZinDzxkL5PJxt5K7io44xZsbWN4Na0exUnqojiFowT8y49oy6aCqgn5F7WslbrFwLbRu5rzzrfVc5foqDgueY7Qtc0nxW4aO1vKQxOJzLQHes3mu8wVbBn7kzEozYfRETC5cFDnCmXUeVq6XOrpmKvnareVqrqhiCrmaoUyn1AVfOFCUKVRpCpMjSo0saCHNIq6pxFsR1jm6x1W3zJ3HqA4qfK1aZibtaaRx+1YDcGtyAUxCFnFpRXNAayofGwbGss0DwFz33Vxh2m73Wjrmiph/WarW1EXBzHNA1rcDn1rTrr7dSh0zSKh+Ux8k5wlqWR8pSTjbPBbXMRO8ltyDxHbfmwct7onPOEwTNJEkE0jWO3ga/KM7g64Wj15by0jW2AMjwxo4axsAOxIS+Ar2CrPDdE8RmtydJKQd7miNvbeQtW04f6J61+cssUA4DWld4DVHmiGy+hc/m037f/tsXQlQ6HaMsoInRtkdKXv13OcGtz1Q2wA2Dm8Sr5QkREQEREBERAREQYasfNv8AVd7Cub4viLaaB872ucxgBIbbWsXBuVyBvuulzDmnsPsXJdNx/o+p/ZX8CD7lydRG7VdOCdVsx0GnmHSZcvyR4StcwfxEavmtkhc1wDmkFpAILTkQcwQRtC4limENNJHVtPO5JnKgWF5XOYASANtnm9uDCc3Erreijr0VKf8AZ4v6YWOXHWsbq1x3tadSmx7Bxzv1m+9e4W5OXhvvPtKzU2xy5Z5dEcEbcvP4e9e4c3ALNSxXaVGY/VcCra1EK8zK8YwBfJ6YEdaxtqha6y0z+Zn/AIF37pb8XHq1fLWK7LWaU0YxAta9m0Ndfud/cFeMdlHKEjgqLA6y1Tq7ntI/eHOHkD4rhxzNbT6XdesWp5dPjrmkX2L66pbxCo4Jcke5dcdTZx9iFw+QcQoU5CrJFAqSeKn3X0j2/wBrCoIVbO9vEKtqbqulT3P0dj7WstVGNrgq+oxKPdcqumKiSOU9+0o7UQkVFY52zmjzVDVYbK5/zcb5S47GNc91znmGgnvU8vK3zQqjkaOXEZPOIv0XFga0N1SRYi5dvC1xTMzuVLxEQ0vDvR7isuym5Jv2pnMYP4bl34Vs9F6H321qirawb2xMLj3PeR/Kugflgjbrg8DFIT4hufmo09dUS5QxOe77Ut44m9ZB5x7m94W22TWMaw1kUFPhVMXOfNJa7rGQRa5fLK6wtln4ELoVBhVPAPmYY4uOoxrSe0gXKqcC0eFM6Sqmk+UVb286QgNayMZ8nG36rcu+yqJMXfUggvDQfqA2A7d5VbXiq1a7bi6uiH12+KyxStcLtIcOIIK12gp2hmqTn25jsRkPJu1mlwP+beKz7s/xftx/WyooeG1Rkab7QbZb+tTFrE7jbOY0IiKUCIiAiIgIvhK8OmaN6D24LlekNI6akmhZbXkic1tzYaxGWe5dLfXMC526a4IDtU5gHI2O429y5OqnU1n/AHw6en8xMOO1GFYnBFJDLTTOheGdHnhpjN2kOj1gBlYjfYbLBdc0Qd+Y0vEQRDwYAvvLVDdmpKL8Sw21hYbx0dbPiBxymxSkgEjVJAuLg2O8X3rnyZfXHDamP0yys97v5ivcBsSFjgOXe7+Yr5UOs5YWb1WOHSZlvH2r1W0d8wqp1RqkOHfxVpHiNxe2sOIIWmO1bV9Nmd62rb1VY6emOwqVWThjbb1G/KN8mNJPAXcf4WrBNhVbN0Y9W/1pHBvlmfJXiNRqkbV5nd501zE6i7itTkr+TnY/cxwJ7Ac/K66ZB6PpHfTVAbxEbbn+Jx9ynUno0wxpu+J1Q7jK9xae1jbNPgtMPTWj9kZeprrVUSNyyr7iFOI5XMaNVo6IGwNIuAOobO5eQVhManSYncbYpVAqAp8qrq4Zd6hKBO1V0wUqpbwO9R5gra0javmUOQKdMFEkV6qSm6I4cJ6yGNw1ma2s8HYWMBcQeo2t3ruwC5l6KMPdy0sxFmtYGNO4l7rm3YGea6cu3FH47cuSfLwYm/ZHgF6AA2ZL6i1UQcck1aeU/cI8Rb3rmdBx3hdA0wl1aV33i0ed/cuf4bk4jiubPPmG+GPEtjoHh1tzhsVzWVBFrha3AbELY3ODmtvtWVZ3Ew0tHmErBZwS4AWyB9qtVUYXqtfYbSD8Vbrrx/r5c1+RERXVEREHh77LC+QqQQvJjQQZHOUSS6tjAsbqMHegpXqiqcPYSSLtN93wOxbocNYdt15GEQ/ZJ7SVE1i3MJi0xw0F9FIOi4O7bj4rHrvHSYe0ZjyXR24dCP0be8X9qzMgYNjWjsACxt01J+msZ7w59R6xaNVj3m56LHnab52GSn/kSqlH0YiHGRzfY2/nZbqvhKrHS0+VvcW+GrQ6JfrZyeqNob5uvfyU+mwKkj2RBx4vLn37jl5K1cVjcFrXDSvEM7Zb25l4FQ1os1oaOAAA8FjfXu3BenALC8BaM2CXEZNyg1GJzfaspkgCgzgINV0jx6aGSOR7OWidzXkGzmkbLHZnc7eCnYVizag2hje7qOo11vG3mpk9MxwIIBB2ggEEdir6GgbTv1o283ey51e7O48VlfDW3lpXLaqxmZIOlDMP928jxAUGdzd4cO1rx7law48xvShkHqyvPkbKW3Sin3sqB3g/9axnpY/rTvz/ABp8rY+3sDisDqVzujHK/wBWKU+xq3xukUJ6MNS7sH/uszMTkd0KOpPW98TR/UKn2v2d/wCnPho9VuzFNIG7y/UjAHHnkHyVTPiMNOCTC6eYbBe0I63XAJ7l10x1TwRyUcIItcyPkdn90Bv8yrsP0FpWP5WW9RJe41+gD1M2eN1euCsKTmmX30dCd1IJpxZ8ri5rbWDYRZrABuBsT+8tpXwBCtojTKZ2+r45wGZNgq+tdLbmmy1TE6Spfte4jhuUiHpZpW2UvhDNRjDzXOPOe4XBIbbJueWdyqKlrW5G+e9WE2E1BAbJC2ojHRDw4PaNwbI0hwHbdeI9Fi7ZTVDPVlhc38bQfNcuXFe07h0Y70iNSshO0gOvt9qtaupAia4HgqNmik+wR1Nv+D98wVgNG6hzQwtnDeDn0jB4t1z5LLtZfPhr3MfjyjnSPkTrgB7xsaSQHE5WJANsjtst4wfEG1ELJWtLNYZtdbWaeGW3tWtYfoU0EOeGNI+8+Z3cXBrAf3Ctup4GsaGtFgPG/EldGDHekatLDNelp/GGRERbsRERAREQEREBERB8X1EQfF8IREHh4WIhEQYnhYHsKIgwvhJWF1C4oiD4MIcVkbgAO1EQZo9Hot4upcWFQt2NC+oglMiaNgAXtEQEREBERB8IC+ag4BEQfdUcF9REBERAREQEREBERB//2Q==</t>
+  </si>
+  <si>
+    <t>Cocoa Flavored</t>
+  </si>
+  <si>
+    <t>Dark and bitter cocoa flavour meets the malted cereal note of the base espresso in Barista Creations Cocoa Truffle.</t>
+  </si>
+  <si>
+    <t>It’s rich and reminiscent of dark chocolate truffles. The base espresso is a blend of the finest South American Arabicas – sweet Bourbon beans from Brazil in harmony with the washed Colombian beans. A split roast brings out the best in each to create an incredibly smooth and rounded espresso – a great match for that dark cocoa flavour. A distinct cocoa note with a touch of almond sweetness and a hint of vanilla – that’s how you’ll recognize a Barista Creations Cocoa Truffle cappuccino.</t>
+  </si>
+  <si>
+    <t>Ristretto 25ml, Espresso 40ml, Cappuccino and Latte Macchiato</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16283400470558/cocoa-truffle-capsule-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/cocoa-truffle_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/vanilla-eclair_XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16283622670366/vanilla-eclair-coffee-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Vanilla Flavoured</t>
+  </si>
+  <si>
+    <t>It’s in sweet harmony that Barista Creations Vanilla Éclair flavour blends into a round, smooth Latin American Arabica espresso.</t>
+  </si>
+  <si>
+    <t>The base blend of Brazilian and Colombian Arabicas is known for its smooth taste and malted cereal notes – a real classic roasted coffee aroma. Barista Creations Vanilla Éclair plays into that full flavour with its own richness. The vanilla flavour brings a velvety layer to the taste of this flavoured coffee. If you dare the decadence, try it as a cappuccino and taste sweet almond notes dancing through the creamy custard taste.</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/caramel-creme-brulee_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16107325259806/caramel-creme-brulee-XL.png?impolicy=product&amp;imwidth=150</t>
+  </si>
+  <si>
+    <t>Caramel Flavoured</t>
+  </si>
+  <si>
+    <t>Go ahead and dream a little. We did. The warming flavour of caramel softens the roasted notes of our most rounded and smooth espresso.</t>
+  </si>
+  <si>
+    <t>Creamy notes of caramel, coconut and vanilla dance through Barista Creations Caramel Crème Brûlée. The base blend for this flavoured coffee consists of some of South America’s finest Arabicas. We blended Brazilian Bourbon beans with washed Colombian coffee and split roasted them to bring them into beautiful harmony. The roast really develops that smooth texture and rounded mouthfeel. It’s into that harmony that we add the caramel flavour to bring this treat to the next level. Try Barista Creations Caramel Crème Brûlée as a cappuccino – it’s exceptionally creamy and brings out those notes of vanilla and coconut.</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1081,6 +1931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,8 +2215,8 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,12 +5457,3229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AC7E57-8E6B-41A5-85C4-6F1AE8873BA1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="22.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="7">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>5</v>
+      </c>
+      <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>5</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="7">
+        <v>10</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="7">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>5</v>
+      </c>
+      <c r="P3" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="7">
+        <v>10</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>4</v>
+      </c>
+      <c r="P4" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="7">
+        <v>10</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7">
+        <v>4</v>
+      </c>
+      <c r="P5" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="W5" s="7">
+        <v>10</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="7">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>4</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="7">
+        <v>10</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="W7" s="7">
+        <v>10</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>3</v>
+      </c>
+      <c r="P8" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>4</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="7">
+        <v>10</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4</v>
+      </c>
+      <c r="O9" s="7">
+        <v>4</v>
+      </c>
+      <c r="P9" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>3</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="7">
+        <v>10</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+      <c r="O10" s="7">
+        <v>3</v>
+      </c>
+      <c r="P10" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>3</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="7">
+        <v>10</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>4</v>
+      </c>
+      <c r="P11" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>4</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="7">
+        <v>10</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="7">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>4</v>
+      </c>
+      <c r="P12" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>4</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="7">
+        <v>10</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="7">
+        <v>9</v>
+      </c>
+      <c r="H13" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>4</v>
+      </c>
+      <c r="P13" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>5</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="7">
+        <v>10</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G14" s="7">
+        <v>8</v>
+      </c>
+      <c r="H14" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4</v>
+      </c>
+      <c r="O14" s="7">
+        <v>3</v>
+      </c>
+      <c r="P14" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>3</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="7">
+        <v>10</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" s="7">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2</v>
+      </c>
+      <c r="O15" s="7">
+        <v>3</v>
+      </c>
+      <c r="P15" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>2</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="7">
+        <v>10</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2</v>
+      </c>
+      <c r="O16" s="7">
+        <v>3</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>3</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="7">
+        <v>10</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6</v>
+      </c>
+      <c r="H17" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>2</v>
+      </c>
+      <c r="P17" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>3</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="7">
+        <v>10</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6</v>
+      </c>
+      <c r="H18" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2</v>
+      </c>
+      <c r="P18" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>2</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="7">
+        <v>10</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>2</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" s="7">
+        <v>10</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>3</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" s="7">
+        <v>10</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G21" s="7">
+        <v>11</v>
+      </c>
+      <c r="H21" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>5</v>
+      </c>
+      <c r="P21" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>3</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" s="7">
+        <v>10</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2</v>
+      </c>
+      <c r="O22" s="7">
+        <v>3</v>
+      </c>
+      <c r="P22" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>3</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" s="7">
+        <v>10</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6</v>
+      </c>
+      <c r="H23" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="7">
+        <v>4</v>
+      </c>
+      <c r="O23" s="7">
+        <v>3</v>
+      </c>
+      <c r="P23" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>2</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="7">
+        <v>10</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6</v>
+      </c>
+      <c r="H24" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="7">
+        <v>4</v>
+      </c>
+      <c r="O24" s="7">
+        <v>3</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>3</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W24" s="7">
+        <v>10</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="7">
+        <v>10</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" s="7">
+        <v>10</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G27" s="7">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3</v>
+      </c>
+      <c r="O27" s="7">
+        <v>3</v>
+      </c>
+      <c r="P27" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>2</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W27" s="7">
+        <v>10</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3</v>
+      </c>
+      <c r="O28" s="7">
+        <v>2</v>
+      </c>
+      <c r="P28" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>2</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" s="7">
+        <v>10</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3</v>
+      </c>
+      <c r="O29" s="7">
+        <v>2</v>
+      </c>
+      <c r="P29" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>2</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29" s="7">
+        <v>10</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G30" s="7">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2</v>
+      </c>
+      <c r="P30" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>2</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="W30" s="7">
+        <v>10</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="R31" s="7">
+        <v>1</v>
+      </c>
+      <c r="S31" s="7">
+        <v>5</v>
+      </c>
+      <c r="T31" s="7">
+        <v>5</v>
+      </c>
+      <c r="U31" s="7">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W31" s="7">
+        <v>10</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="R32" s="7">
+        <v>3</v>
+      </c>
+      <c r="S32" s="7">
+        <v>3</v>
+      </c>
+      <c r="T32" s="7">
+        <v>2</v>
+      </c>
+      <c r="U32" s="7">
+        <v>3</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W32" s="7">
+        <v>10</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="R33" s="7">
+        <v>5</v>
+      </c>
+      <c r="S33" s="7">
+        <v>1</v>
+      </c>
+      <c r="T33" s="7">
+        <v>1</v>
+      </c>
+      <c r="U33" s="7">
+        <v>4</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W33" s="7">
+        <v>10</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="7">
+        <v>1</v>
+      </c>
+      <c r="T34" s="7">
+        <v>2</v>
+      </c>
+      <c r="U34" s="7">
+        <v>2</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34" s="7">
+        <v>10</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1</v>
+      </c>
+      <c r="S35" s="7">
+        <v>1</v>
+      </c>
+      <c r="T35" s="7">
+        <v>2</v>
+      </c>
+      <c r="U35" s="7">
+        <v>2</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="7">
+        <v>10</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="R36" s="7">
+        <v>1</v>
+      </c>
+      <c r="S36" s="7">
+        <v>1</v>
+      </c>
+      <c r="T36" s="7">
+        <v>2</v>
+      </c>
+      <c r="U36" s="7">
+        <v>2</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W36" s="7">
+        <v>10</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z36" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NespressoTrainingApp/data/CoffeeData.xlsx
+++ b/NespressoTrainingApp/data/CoffeeData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\Documents\Nespresso\Version 1\NespressoTrainingApp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\Documents\Nespresso\Version 4\NespressoTrainingApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931DD1A-C551-40F2-AEF6-63E8939A549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A7E609-FE00-4C38-BF7D-8CEE4C20513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Vertuo" sheetId="1" r:id="rId1"/>
     <sheet name="Original" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Original!$A$1:$AD$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vertuo!$A$1:$AD$36</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="614">
   <si>
     <t>Name</t>
   </si>
@@ -196,9 +200,6 @@
     <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/fortado_L.png</t>
   </si>
   <si>
-    <t>Roast and ground coffee. Packaged in a protective atmosphere.</t>
-  </si>
-  <si>
     <t>Intense &amp; Full-Bodied</t>
   </si>
   <si>
@@ -236,9 +237,6 @@
   </si>
   <si>
     <t>Cereal</t>
-  </si>
-  <si>
-    <t>Decaffeinated Roast and ground coffee. Packaged in a protective atmosphere.</t>
   </si>
   <si>
     <t>125 g</t>
@@ -1869,6 +1867,15 @@
   </si>
   <si>
     <t>Creamy notes of caramel, coconut and vanilla dance through Barista Creations Caramel Crème Brûlée. The base blend for this flavoured coffee consists of some of South America’s finest Arabicas. We blended Brazilian Bourbon beans with washed Colombian coffee and split roasted them to bring them into beautiful harmony. The roast really develops that smooth texture and rounded mouthfeel. It’s into that harmony that we add the caramel flavour to bring this treat to the next level. Try Barista Creations Caramel Crème Brûlée as a cappuccino – it’s exceptionally creamy and brings out those notes of vanilla and coconut.</t>
+  </si>
+  <si>
+    <t>Certified by Fair Trade Canada</t>
+  </si>
+  <si>
+    <t>Decaffeinated Roast and ground coffee</t>
+  </si>
+  <si>
+    <t>Decaffeinated Roast and ground coffe</t>
   </si>
 </sst>
 </file>
@@ -2214,9 +2221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2240,7 @@
     <col min="20" max="20" width="10.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="90" x14ac:dyDescent="0.25">
@@ -2289,25 +2296,25 @@
         <v>33</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>38</v>
@@ -2316,21 +2323,21 @@
         <v>40</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -2381,16 +2388,16 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>35</v>
@@ -2399,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>39</v>
@@ -2408,18 +2415,18 @@
         <v>41</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -2470,16 +2477,16 @@
         <v>4</v>
       </c>
       <c r="R3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>35</v>
@@ -2488,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>45</v>
@@ -2497,18 +2504,18 @@
         <v>46</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2523,7 +2530,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="5">
         <v>8</v>
@@ -2559,19 +2566,19 @@
         <v>4</v>
       </c>
       <c r="R4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W4" s="5">
         <v>10</v>
@@ -2586,18 +2593,18 @@
         <v>55</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AD4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -2612,7 +2619,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5">
         <v>8</v>
@@ -2624,22 +2631,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
         <v>4</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
       </c>
       <c r="P5" s="5">
         <v>4</v>
@@ -2648,19 +2655,19 @@
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>70</v>
+        <v>612</v>
       </c>
       <c r="W5" s="5">
         <v>10</v>
@@ -2669,24 +2676,24 @@
         <v>53</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AD5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -2701,7 +2708,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="5">
         <v>6</v>
@@ -2713,16 +2720,16 @@
         <v>1.26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="5">
         <v>1</v>
@@ -2737,45 +2744,45 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W6" s="5">
         <v>10</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -2790,7 +2797,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="5">
         <v>6</v>
@@ -2802,22 +2809,22 @@
         <v>1.26</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <v>2</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1</v>
       </c>
       <c r="P7" s="5">
         <v>3</v>
@@ -2826,45 +2833,45 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>70</v>
+        <v>613</v>
       </c>
       <c r="W7" s="5">
         <v>10</v>
       </c>
       <c r="X7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="AA7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
@@ -2879,7 +2886,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="5">
         <v>5</v>
@@ -2891,16 +2898,16 @@
         <v>1.26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
@@ -2915,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>35</v>
@@ -2933,27 +2940,27 @@
         <v>10</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -2968,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="5">
         <v>6</v>
@@ -2980,16 +2987,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" s="5">
         <v>3</v>
@@ -3004,16 +3011,16 @@
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>35</v>
@@ -3025,24 +3032,24 @@
         <v>53</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AD9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -3057,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
@@ -3069,22 +3076,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N10" s="5">
+        <v>3</v>
+      </c>
+      <c r="O10" s="5">
         <v>2</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3</v>
       </c>
       <c r="P10" s="5">
         <v>2</v>
@@ -3093,16 +3100,16 @@
         <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>35</v>
@@ -3114,24 +3121,24 @@
         <v>53</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AD10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3146,7 +3153,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
@@ -3158,16 +3165,16 @@
         <v>1.26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N11" s="5">
         <v>3</v>
@@ -3182,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>35</v>
@@ -3200,27 +3207,27 @@
         <v>10</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -3235,7 +3242,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" s="5">
         <v>7</v>
@@ -3247,10 +3254,10 @@
         <v>1.26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>37</v>
@@ -3271,16 +3278,16 @@
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>35</v>
@@ -3292,27 +3299,27 @@
         <v>53</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -3324,7 +3331,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G13" s="5">
         <v>7</v>
@@ -3336,22 +3343,22 @@
         <v>1.21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
         <v>3</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
       </c>
       <c r="P13" s="5">
         <v>4</v>
@@ -3360,16 +3367,16 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>35</v>
@@ -3378,30 +3385,30 @@
         <v>10</v>
       </c>
       <c r="X13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
         <v>118</v>
       </c>
-      <c r="Y13" t="s">
-        <v>120</v>
-      </c>
       <c r="Z13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -3413,7 +3420,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="5">
         <v>7</v>
@@ -3425,22 +3432,22 @@
         <v>1.37</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
         <v>3</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1</v>
       </c>
       <c r="P14" s="5">
         <v>4</v>
@@ -3449,16 +3456,16 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>35</v>
@@ -3467,42 +3474,42 @@
         <v>10</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G15" s="5">
         <v>6</v>
@@ -3514,16 +3521,16 @@
         <v>1.08</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="M15" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N15" s="5">
         <v>4</v>
@@ -3538,48 +3545,48 @@
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W15" s="5">
         <v>10</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -3591,7 +3598,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G16" s="5">
         <v>5</v>
@@ -3603,22 +3610,22 @@
         <v>1.37</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N16" s="5">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5">
         <v>1</v>
-      </c>
-      <c r="O16" s="5">
-        <v>5</v>
       </c>
       <c r="P16" s="5">
         <v>1</v>
@@ -3627,48 +3634,51 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>70</v>
+        <v>612</v>
       </c>
       <c r="W16" s="5">
         <v>10</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="AD16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>14</v>
@@ -3680,7 +3690,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G17" s="5">
         <v>4</v>
@@ -3692,22 +3702,22 @@
         <v>1.21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N17" s="5">
+        <v>3</v>
+      </c>
+      <c r="O17" s="5">
         <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <v>3</v>
       </c>
       <c r="P17" s="5">
         <v>2</v>
@@ -3716,60 +3726,60 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W17" s="5">
         <v>10</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" s="5">
         <v>11</v>
@@ -3781,40 +3791,40 @@
         <v>0.99</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="N18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="5">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>35</v>
@@ -3823,42 +3833,42 @@
         <v>10</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G19" s="5">
         <v>11</v>
@@ -3870,13 +3880,13 @@
         <v>0.99</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>29</v>
@@ -3894,60 +3904,60 @@
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W19" s="5">
         <v>10</v>
       </c>
       <c r="X19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z19" t="s">
         <v>193</v>
       </c>
-      <c r="Y19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>195</v>
-      </c>
       <c r="AA19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G20" s="5">
         <v>11</v>
@@ -3959,13 +3969,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>29</v>
@@ -3983,16 +3993,16 @@
         <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>35</v>
@@ -4004,39 +4014,39 @@
         <v>53</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G21" s="5">
         <v>9</v>
@@ -4048,22 +4058,22 @@
         <v>0.99</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
         <v>3</v>
-      </c>
-      <c r="O21" s="5">
-        <v>1</v>
       </c>
       <c r="P21" s="5">
         <v>3</v>
@@ -4072,60 +4082,60 @@
         <v>3</v>
       </c>
       <c r="R21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>70</v>
+        <v>612</v>
       </c>
       <c r="W21" s="5">
         <v>10</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" s="5">
         <v>9</v>
@@ -4137,13 +4147,13 @@
         <v>0.99</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>29</v>
@@ -4158,19 +4168,19 @@
         <v>1</v>
       </c>
       <c r="Q22" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>35</v>
@@ -4179,42 +4189,42 @@
         <v>10</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G23" s="5">
         <v>8</v>
@@ -4226,16 +4236,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N23" s="5">
         <v>1</v>
@@ -4250,16 +4260,16 @@
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>35</v>
@@ -4271,39 +4281,39 @@
         <v>53</v>
       </c>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G24" s="5">
         <v>6</v>
@@ -4315,22 +4325,22 @@
         <v>0.99</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
         <v>3</v>
-      </c>
-      <c r="O24" s="5">
-        <v>1</v>
       </c>
       <c r="P24" s="5">
         <v>3</v>
@@ -4339,16 +4349,16 @@
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>35</v>
@@ -4357,42 +4367,42 @@
         <v>10</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Z24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AA24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G25" s="5">
         <v>5</v>
@@ -4404,22 +4414,22 @@
         <v>0.99</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="N25" s="5">
+        <v>3</v>
+      </c>
+      <c r="O25" s="5">
         <v>2</v>
-      </c>
-      <c r="O25" s="5">
-        <v>3</v>
       </c>
       <c r="P25" s="5">
         <v>2</v>
@@ -4428,16 +4438,16 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>35</v>
@@ -4446,42 +4456,42 @@
         <v>10</v>
       </c>
       <c r="X25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
         <v>226</v>
       </c>
-      <c r="Y25" t="s">
-        <v>228</v>
-      </c>
       <c r="Z25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="5">
         <v>5</v>
@@ -4493,16 +4503,16 @@
         <v>0.11</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N26" s="5">
         <v>2</v>
@@ -4517,16 +4527,16 @@
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>35</v>
@@ -4535,42 +4545,42 @@
         <v>10</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AA26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G27" s="5">
         <v>4</v>
@@ -4582,16 +4592,16 @@
         <v>0.99</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N27" s="5">
         <v>2</v>
@@ -4606,63 +4616,63 @@
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W27" s="5">
         <v>10</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H28" s="1">
         <v>11.2</v>
@@ -4671,22 +4681,22 @@
         <v>1.6</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="M28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
         <v>2</v>
-      </c>
-      <c r="O28" s="5">
-        <v>1</v>
       </c>
       <c r="P28" s="5">
         <v>2</v>
@@ -4695,16 +4705,16 @@
         <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>35</v>
@@ -4713,48 +4723,48 @@
         <v>7</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z28" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB28" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AA28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="AC28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H29" s="1">
         <v>11.2</v>
@@ -4763,22 +4773,22 @@
         <v>1.6</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
         <v>3</v>
-      </c>
-      <c r="O29" s="5">
-        <v>1</v>
       </c>
       <c r="P29" s="5">
         <v>3</v>
@@ -4787,16 +4797,16 @@
         <v>3</v>
       </c>
       <c r="R29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>35</v>
@@ -4805,48 +4815,48 @@
         <v>7</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Z29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AA29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H30" s="1">
         <v>11</v>
@@ -4855,28 +4865,28 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="M30" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R30" s="5">
         <v>3</v>
@@ -4900,27 +4910,27 @@
         <v>53</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>14</v>
@@ -4932,10 +4942,10 @@
         <v>27</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H31" s="1">
         <v>12.6</v>
@@ -4944,16 +4954,16 @@
         <v>1.26</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="M31" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -4986,30 +4996,30 @@
         <v>10</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Z31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AA31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>14</v>
@@ -5021,10 +5031,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H32" s="1">
         <v>12.6</v>
@@ -5033,16 +5043,16 @@
         <v>1.26</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="M32" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5069,36 +5079,36 @@
         <v>2</v>
       </c>
       <c r="V32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W32" s="5">
         <v>10</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AA32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
@@ -5110,10 +5120,10 @@
         <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H33" s="1">
         <v>12.6</v>
@@ -5122,16 +5132,16 @@
         <v>1.26</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5158,36 +5168,36 @@
         <v>2</v>
       </c>
       <c r="V33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W33" s="5">
         <v>10</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>14</v>
@@ -5199,10 +5209,10 @@
         <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H34" s="1">
         <v>12.6</v>
@@ -5211,16 +5221,16 @@
         <v>1.26</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5247,36 +5257,36 @@
         <v>2</v>
       </c>
       <c r="V34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W34" s="5">
         <v>10</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Z34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>14</v>
@@ -5288,10 +5298,10 @@
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H35" s="1">
         <v>12.6</v>
@@ -5300,16 +5310,16 @@
         <v>1.26</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="M35" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5336,51 +5346,51 @@
         <v>2</v>
       </c>
       <c r="V35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W35" s="5">
         <v>10</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H36" s="1">
         <v>9.9</v>
@@ -5389,16 +5399,16 @@
         <v>0.99</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5413,16 +5423,16 @@
         <v>3</v>
       </c>
       <c r="R36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V36" t="s">
         <v>35</v>
@@ -5431,22 +5441,22 @@
         <v>10</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Z36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AA36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5459,16 +5469,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AC7E57-8E6B-41A5-85C4-6F1AE8873BA1}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
+      <selection pane="bottomLeft" activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="7"/>
+    <col min="3" max="27" width="9.140625" style="7"/>
+    <col min="28" max="28" width="19.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="90" x14ac:dyDescent="0.25">
@@ -5524,25 +5535,25 @@
         <v>33</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>38</v>
@@ -5551,36 +5562,36 @@
         <v>40</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="G2" s="7">
         <v>13</v>
@@ -5592,16 +5603,16 @@
         <v>0.87</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -5616,16 +5627,16 @@
         <v>5</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>35</v>
@@ -5634,42 +5645,42 @@
         <v>10</v>
       </c>
       <c r="X2" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="Z2" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G3" s="7">
         <v>12</v>
@@ -5681,16 +5692,16 @@
         <v>0.87</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="N3" s="7">
         <v>1</v>
@@ -5705,16 +5716,16 @@
         <v>5</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>35</v>
@@ -5723,42 +5734,42 @@
         <v>10</v>
       </c>
       <c r="X3" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="AA3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G4" s="7">
         <v>10</v>
@@ -5770,16 +5781,16 @@
         <v>0.87</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N4" s="7">
         <v>3</v>
@@ -5794,16 +5805,16 @@
         <v>4</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>35</v>
@@ -5812,42 +5823,42 @@
         <v>10</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G5" s="7">
         <v>10</v>
@@ -5859,16 +5870,16 @@
         <v>0.92</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N5" s="7">
         <v>3</v>
@@ -5883,60 +5894,60 @@
         <v>4</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W5" s="7">
         <v>10</v>
       </c>
       <c r="X5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="AA5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7">
         <v>9</v>
@@ -5948,22 +5959,22 @@
         <v>0.87</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7">
         <v>4</v>
-      </c>
-      <c r="O6" s="7">
-        <v>2</v>
       </c>
       <c r="P6" s="7">
         <v>4</v>
@@ -5972,16 +5983,16 @@
         <v>4</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>35</v>
@@ -5990,42 +6001,42 @@
         <v>10</v>
       </c>
       <c r="X6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z6" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="AA6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G7" s="7">
         <v>9</v>
@@ -6037,22 +6048,22 @@
         <v>0.92</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="N7" s="7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="7">
         <v>4</v>
-      </c>
-      <c r="O7" s="7">
-        <v>2</v>
       </c>
       <c r="P7" s="7">
         <v>4</v>
@@ -6061,60 +6072,60 @@
         <v>4</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W7" s="7">
         <v>10</v>
       </c>
       <c r="X7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z7" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="Y7" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="AA7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7">
         <v>8</v>
@@ -6126,16 +6137,16 @@
         <v>0.87</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -6150,16 +6161,16 @@
         <v>4</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>35</v>
@@ -6168,42 +6179,42 @@
         <v>10</v>
       </c>
       <c r="X8" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="Y8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="AA8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G9" s="7">
         <v>8</v>
@@ -6215,16 +6226,16 @@
         <v>0.87</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="N9" s="7">
         <v>4</v>
@@ -6239,16 +6250,16 @@
         <v>3</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>35</v>
@@ -6257,42 +6268,42 @@
         <v>10</v>
       </c>
       <c r="X9" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z9" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="Y9" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="AA9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7">
         <v>6</v>
@@ -6304,16 +6315,16 @@
         <v>0.87</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="N10" s="7">
         <v>3</v>
@@ -6328,16 +6339,16 @@
         <v>3</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>35</v>
@@ -6346,42 +6357,42 @@
         <v>10</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="G11" s="7">
         <v>10</v>
@@ -6393,16 +6404,16 @@
         <v>0.92</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
@@ -6417,16 +6428,16 @@
         <v>4</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>35</v>
@@ -6435,42 +6446,42 @@
         <v>10</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G12" s="7">
         <v>9</v>
@@ -6482,16 +6493,16 @@
         <v>0.87</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N12" s="7">
         <v>1</v>
@@ -6506,16 +6517,16 @@
         <v>4</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>35</v>
@@ -6524,42 +6535,42 @@
         <v>10</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G13" s="7">
         <v>9</v>
@@ -6571,16 +6582,16 @@
         <v>0.87</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="N13" s="7">
         <v>1</v>
@@ -6589,22 +6600,22 @@
         <v>4</v>
       </c>
       <c r="P13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>35</v>
@@ -6613,42 +6624,42 @@
         <v>10</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7">
         <v>8</v>
@@ -6660,16 +6671,16 @@
         <v>0.87</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="N14" s="7">
         <v>4</v>
@@ -6684,16 +6695,16 @@
         <v>3</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>35</v>
@@ -6702,42 +6713,42 @@
         <v>10</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G15" s="7">
         <v>8</v>
@@ -6749,16 +6760,16 @@
         <v>0.92</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N15" s="7">
         <v>2</v>
@@ -6773,16 +6784,16 @@
         <v>2</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>35</v>
@@ -6791,42 +6802,42 @@
         <v>10</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7">
         <v>6</v>
@@ -6838,16 +6849,16 @@
         <v>0.87</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N16" s="7">
         <v>2</v>
@@ -6862,16 +6873,16 @@
         <v>3</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>35</v>
@@ -6880,42 +6891,42 @@
         <v>10</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7">
         <v>6</v>
@@ -6927,16 +6938,16 @@
         <v>0.92</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N17" s="7">
         <v>1</v>
@@ -6951,16 +6962,16 @@
         <v>3</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>35</v>
@@ -6969,42 +6980,42 @@
         <v>10</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G18" s="7">
         <v>6</v>
@@ -7016,16 +7027,16 @@
         <v>0.92</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N18" s="7">
         <v>1</v>
@@ -7040,16 +7051,16 @@
         <v>2</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>35</v>
@@ -7058,42 +7069,42 @@
         <v>10</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7">
         <v>5</v>
@@ -7105,16 +7116,16 @@
         <v>0.92</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N19" s="7">
         <v>2</v>
@@ -7129,16 +7140,16 @@
         <v>2</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>35</v>
@@ -7147,42 +7158,42 @@
         <v>10</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7">
         <v>4</v>
@@ -7194,16 +7205,16 @@
         <v>0.92</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N20" s="7">
         <v>2</v>
@@ -7218,16 +7229,16 @@
         <v>3</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>35</v>
@@ -7236,42 +7247,42 @@
         <v>10</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G21" s="7">
         <v>11</v>
@@ -7283,16 +7294,16 @@
         <v>0.97</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="N21" s="7">
         <v>1</v>
@@ -7307,16 +7318,16 @@
         <v>3</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>35</v>
@@ -7325,42 +7336,42 @@
         <v>10</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AD21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7">
         <v>8</v>
@@ -7372,16 +7383,16 @@
         <v>0.97</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="N22" s="7">
         <v>2</v>
@@ -7396,16 +7407,16 @@
         <v>3</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V22" s="7" t="s">
         <v>35</v>
@@ -7414,42 +7425,45 @@
         <v>10</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>611</v>
       </c>
       <c r="AD22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G23" s="7">
         <v>6</v>
@@ -7461,16 +7475,16 @@
         <v>0.97</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>519</v>
-      </c>
       <c r="M23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N23" s="7">
         <v>4</v>
@@ -7485,16 +7499,16 @@
         <v>2</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>35</v>
@@ -7503,42 +7517,42 @@
         <v>10</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AD23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G24" s="7">
         <v>6</v>
@@ -7550,16 +7564,16 @@
         <v>0.97</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N24" s="7">
         <v>4</v>
@@ -7574,16 +7588,16 @@
         <v>3</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V24" s="7" t="s">
         <v>35</v>
@@ -7592,42 +7606,42 @@
         <v>10</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AD24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7">
         <v>5</v>
@@ -7639,16 +7653,16 @@
         <v>0.97</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="N25" s="7">
         <v>2</v>
@@ -7663,16 +7677,16 @@
         <v>1</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>35</v>
@@ -7681,42 +7695,42 @@
         <v>10</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AD25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G26" s="7">
         <v>4</v>
@@ -7728,16 +7742,16 @@
         <v>0.97</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N26" s="7">
         <v>4</v>
@@ -7752,16 +7766,16 @@
         <v>1</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>35</v>
@@ -7770,42 +7784,42 @@
         <v>10</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AD26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G27" s="7">
         <v>5</v>
@@ -7817,16 +7831,16 @@
         <v>0.87</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="N27" s="7">
         <v>3</v>
@@ -7841,16 +7855,16 @@
         <v>2</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>35</v>
@@ -7859,42 +7873,42 @@
         <v>10</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G28" s="7">
         <v>4</v>
@@ -7906,16 +7920,16 @@
         <v>0.87</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="N28" s="7">
         <v>3</v>
@@ -7930,16 +7944,16 @@
         <v>2</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>35</v>
@@ -7948,42 +7962,42 @@
         <v>10</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G29" s="7">
         <v>4</v>
@@ -7995,16 +8009,16 @@
         <v>0.87</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>558</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N29" s="7">
         <v>3</v>
@@ -8019,16 +8033,16 @@
         <v>2</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>35</v>
@@ -8037,42 +8051,42 @@
         <v>10</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G30" s="7">
         <v>4</v>
@@ -8084,16 +8098,16 @@
         <v>0.87</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="N30" s="7">
         <v>3</v>
@@ -8108,63 +8122,63 @@
         <v>2</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W30" s="7">
         <v>10</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H31" s="8">
         <v>9.6999999999999993</v>
@@ -8173,28 +8187,28 @@
         <v>0.97</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R31" s="7">
         <v>1</v>
@@ -8215,45 +8229,45 @@
         <v>10</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H32" s="8">
         <v>9.6999999999999993</v>
@@ -8262,28 +8276,28 @@
         <v>0.97</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>590</v>
-      </c>
       <c r="N32" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R32" s="7">
         <v>3</v>
@@ -8304,45 +8318,45 @@
         <v>10</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y32" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AA32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB32" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H33" s="8">
         <v>9.6999999999999993</v>
@@ -8351,28 +8365,28 @@
         <v>0.97</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R33" s="7">
         <v>5</v>
@@ -8393,45 +8407,45 @@
         <v>10</v>
       </c>
       <c r="X33" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z33" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="Y33" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z33" s="7" t="s">
-        <v>596</v>
-      </c>
       <c r="AA33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB33" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H34" s="8">
         <v>9.6999999999999993</v>
@@ -8440,28 +8454,28 @@
         <v>0.97</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R34" s="7">
         <v>1</v>
@@ -8482,45 +8496,45 @@
         <v>10</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Y34" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AA34" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB34" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H35" s="8">
         <v>9.6999999999999993</v>
@@ -8529,28 +8543,28 @@
         <v>0.97</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R35" s="7">
         <v>1</v>
@@ -8571,45 +8585,45 @@
         <v>10</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB35" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H36" s="8">
         <v>9.6999999999999993</v>
@@ -8618,28 +8632,28 @@
         <v>0.97</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R36" s="7">
         <v>1</v>
@@ -8660,22 +8674,22 @@
         <v>10</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB36" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/NespressoTrainingApp/data/CoffeeData.xlsx
+++ b/NespressoTrainingApp/data/CoffeeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\Documents\Nespresso\Version 4\NespressoTrainingApp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\Documents\Nespresso Projects\Version 5\NespressoTrainingApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A7E609-FE00-4C38-BF7D-8CEE4C20513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A869F3-EE99-4F69-A19A-4D5D8163E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertuo" sheetId="1" r:id="rId1"/>
@@ -2221,9 +2221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,7 +4500,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="1">
-        <v>0.11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>234</v>
